--- a/results/mp/logistic/corona/confidence/126/desired-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/desired-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="203">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,163 +40,184 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>kill</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>hell</t>
   </si>
   <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>slash</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>died</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>debt</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>slash</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>cuts</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
   <si>
     <t>cancelled</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>selfish</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>shame</t>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>beginning</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>saudi</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>struggling</t>
+    <t>risk</t>
   </si>
   <si>
     <t>cut</t>
   </si>
   <si>
-    <t>beginning</t>
-  </si>
-  <si>
-    <t>saudi</t>
+    <t>affected</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>facing</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
+    <t>shortages</t>
+  </si>
+  <si>
+    <t>related</t>
   </si>
   <si>
     <t>isolation</t>
@@ -208,49 +229,85 @@
     <t>shortage</t>
   </si>
   <si>
+    <t>w</t>
+  </si>
+  <si>
     <t>oil</t>
   </si>
   <si>
-    <t>being</t>
+    <t>why</t>
+  </si>
+  <si>
+    <t>because</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>over</t>
+  </si>
+  <si>
+    <t>or</t>
   </si>
   <si>
     <t>buying</t>
   </si>
   <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>or</t>
-  </si>
-  <si>
     <t>prices</t>
   </si>
   <si>
+    <t>if</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>during</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
     <t>are</t>
   </si>
   <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>a</t>
+    <t>.</t>
   </si>
   <si>
     <t>the</t>
   </si>
   <si>
+    <t>in</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
-    <t>.</t>
+    <t>for</t>
+  </si>
+  <si>
+    <t>is</t>
   </si>
   <si>
     <t>,</t>
@@ -259,7 +316,7 @@
     <t>and</t>
   </si>
   <si>
-    <t>in</t>
+    <t>corona</t>
   </si>
   <si>
     <t>negative</t>
@@ -268,307 +325,304 @@
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>amazing</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>amazing</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>friend</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>toronto</t>
   </si>
   <si>
     <t>ready</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>easter</t>
   </si>
   <si>
     <t>credit</t>
   </si>
   <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>give</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>easter</t>
+    <t>data</t>
   </si>
   <si>
     <t>helping</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>yourself</t>
-  </si>
-  <si>
     <t>article</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>check</t>
   </si>
   <si>
     <t>house</t>
   </si>
   <si>
+    <t>keep</t>
+  </si>
+  <si>
     <t>increased</t>
   </si>
   <si>
-    <t>keep</t>
+    <t>look</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>times</t>
-  </si>
-  <si>
-    <t>want</t>
+    <t>local</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>shop</t>
   </si>
   <si>
-    <t>employees</t>
-  </si>
-  <si>
-    <t>health</t>
+    <t>make</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>shopping</t>
   </si>
   <si>
     <t>stay</t>
   </si>
   <si>
+    <t>you</t>
+  </si>
+  <si>
     <t>need</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>amp</t>
   </si>
   <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>here</t>
-  </si>
-  <si>
-    <t>shopping</t>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>get</t>
   </si>
   <si>
     <t>!</t>
   </si>
   <si>
-    <t>our</t>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>at</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>corona</t>
+    <t>food</t>
   </si>
   <si>
     <t>as</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>store</t>
   </si>
 </sst>
 </file>
@@ -926,7 +980,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q114"/>
+  <dimension ref="A1:Q116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -934,10 +988,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="J1" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -995,13 +1049,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9459459459459459</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1013,10 +1067,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -1045,13 +1099,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9210526315789473</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1063,19 +1117,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="K4">
-        <v>0.9444444444444444</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="L4">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="M4">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1087,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1095,13 +1149,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8947368421052632</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1113,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="K5">
-        <v>0.9333333333333333</v>
+        <v>0.9375</v>
       </c>
       <c r="L5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1145,13 +1199,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8695652173913043</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1163,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="K6">
-        <v>0.9322033898305084</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L6">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="M6">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1187,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1195,7 +1249,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="C7">
         <v>13</v>
@@ -1213,19 +1267,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="K7">
-        <v>0.925</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L7">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="M7">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1237,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1245,13 +1299,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8611111111111112</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1263,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="K8">
-        <v>0.9230769230769231</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1287,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1295,13 +1349,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8493150684931506</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C9">
-        <v>248</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>248</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1313,19 +1367,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="K9">
-        <v>0.9090909090909091</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1337,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1345,13 +1399,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8235294117647058</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C10">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1363,31 +1417,31 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10">
+        <v>0.9150943396226415</v>
+      </c>
+      <c r="L10">
+        <v>97</v>
+      </c>
+      <c r="M10">
+        <v>97</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>9</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K10">
-        <v>0.8943661971830986</v>
-      </c>
-      <c r="L10">
-        <v>127</v>
-      </c>
-      <c r="M10">
-        <v>127</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1395,13 +1449,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8235294117647058</v>
+        <v>0.875</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1413,19 +1467,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="K11">
-        <v>0.8929503916449086</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L11">
-        <v>342</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>342</v>
+        <v>30</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1437,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>41</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1445,13 +1499,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8125</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1463,19 +1517,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="K12">
-        <v>0.8888888888888888</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="L12">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="M12">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1487,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1495,13 +1549,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7931034482758621</v>
+        <v>0.8561643835616438</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1513,19 +1567,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="K13">
-        <v>0.8888888888888888</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L13">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M13">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1537,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1545,13 +1599,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7826086956521739</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1563,19 +1617,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="K14">
-        <v>0.8837209302325582</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L14">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M14">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1587,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1595,13 +1649,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7692307692307693</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1613,19 +1667,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="K15">
-        <v>0.8828125</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L15">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="M15">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1637,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1645,13 +1699,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7666666666666667</v>
+        <v>0.8125</v>
       </c>
       <c r="C16">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1663,19 +1717,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="K16">
-        <v>0.875</v>
+        <v>0.8848167539267016</v>
       </c>
       <c r="L16">
-        <v>14</v>
+        <v>338</v>
       </c>
       <c r="M16">
-        <v>14</v>
+        <v>339</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1684,10 +1738,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1695,49 +1749,49 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7647058823529411</v>
+        <v>0.8</v>
       </c>
       <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17">
+        <v>0.8839285714285714</v>
+      </c>
+      <c r="L17">
+        <v>99</v>
+      </c>
+      <c r="M17">
+        <v>99</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>13</v>
-      </c>
-      <c r="D17">
-        <v>13</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>4</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K17">
-        <v>0.8723404255319149</v>
-      </c>
-      <c r="L17">
-        <v>41</v>
-      </c>
-      <c r="M17">
-        <v>41</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1745,13 +1799,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7307692307692307</v>
+        <v>0.8</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1763,31 +1817,31 @@
         <v>0</v>
       </c>
       <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18">
+        <v>0.8793103448275862</v>
+      </c>
+      <c r="L18">
+        <v>51</v>
+      </c>
+      <c r="M18">
+        <v>51</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>7</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K18">
-        <v>0.8679245283018868</v>
-      </c>
-      <c r="L18">
-        <v>92</v>
-      </c>
-      <c r="M18">
-        <v>92</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1795,13 +1849,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.725</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="C19">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1813,19 +1867,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="K19">
-        <v>0.8625</v>
+        <v>0.875</v>
       </c>
       <c r="L19">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="M19">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1837,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1845,13 +1899,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7248677248677249</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C20">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1863,19 +1917,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="K20">
-        <v>0.8620689655172413</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L20">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M20">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1887,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1895,13 +1949,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.72</v>
+        <v>0.775</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1913,19 +1967,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="K21">
-        <v>0.8571428571428571</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L21">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="M21">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1937,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1945,7 +1999,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6842105263157895</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C22">
         <v>13</v>
@@ -1963,19 +2017,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="K22">
-        <v>0.8421052631578947</v>
+        <v>0.8625</v>
       </c>
       <c r="L22">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1987,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1995,13 +2049,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6802325581395349</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C23">
-        <v>351</v>
+        <v>17</v>
       </c>
       <c r="D23">
-        <v>351</v>
+        <v>17</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2013,19 +2067,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>165</v>
+        <v>6</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="K23">
-        <v>0.8235294117647058</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L23">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -2037,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2045,13 +2099,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6666666666666666</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2063,10 +2117,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="K24">
         <v>0.8214285714285714</v>
@@ -2095,13 +2149,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6666666666666666</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="C25">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D25">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2113,10 +2167,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="K25">
         <v>0.8181818181818182</v>
@@ -2145,13 +2199,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6521739130434783</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2163,19 +2217,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="K26">
-        <v>0.8170731707317073</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L26">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="M26">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2187,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2195,13 +2249,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2213,19 +2267,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="K27">
-        <v>0.8148148148148148</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L27">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2237,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2245,37 +2299,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6451612903225806</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="K28">
-        <v>0.7948717948717948</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L28">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="M28">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2287,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2295,13 +2349,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6440677966101694</v>
+        <v>0.686046511627907</v>
       </c>
       <c r="C29">
-        <v>38</v>
+        <v>354</v>
       </c>
       <c r="D29">
-        <v>38</v>
+        <v>354</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2313,10 +2367,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="K29">
         <v>0.7916666666666666</v>
@@ -2345,13 +2399,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6153846153846154</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C30">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2363,19 +2417,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="K30">
-        <v>0.7857142857142857</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L30">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2387,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2395,13 +2449,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6111111111111112</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C31">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2413,19 +2467,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="K31">
-        <v>0.7777777777777778</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L31">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="M31">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2437,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2445,13 +2499,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6055555555555555</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C32">
-        <v>218</v>
+        <v>15</v>
       </c>
       <c r="D32">
-        <v>218</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2463,19 +2517,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>142</v>
+        <v>7</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="K32">
-        <v>0.775</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L32">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M32">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2487,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2495,13 +2549,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.6</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C33">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D33">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2513,19 +2567,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="K33">
-        <v>0.7647058823529411</v>
+        <v>0.775</v>
       </c>
       <c r="L33">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M33">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2537,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2545,13 +2599,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5909090909090909</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C34">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D34">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2563,31 +2617,31 @@
         <v>0</v>
       </c>
       <c r="H34">
+        <v>10</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K34">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="L34">
+        <v>30</v>
+      </c>
+      <c r="M34">
+        <v>30</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
         <v>9</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K34">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L34">
-        <v>13</v>
-      </c>
-      <c r="M34">
-        <v>13</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2595,13 +2649,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5838926174496645</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C35">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D35">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2613,19 +2667,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="K35">
-        <v>0.76</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L35">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M35">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2637,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2645,13 +2699,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5675675675675675</v>
+        <v>0.65</v>
       </c>
       <c r="C36">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D36">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2663,19 +2717,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="K36">
-        <v>0.7441176470588236</v>
+        <v>0.7588235294117647</v>
       </c>
       <c r="L36">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M36">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2687,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2695,13 +2749,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.5636363636363636</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="C37">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D37">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2713,10 +2767,10 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="K37">
         <v>0.7428571428571429</v>
@@ -2745,13 +2799,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5625</v>
+        <v>0.625</v>
       </c>
       <c r="C38">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D38">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2763,19 +2817,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="K38">
-        <v>0.7389830508474576</v>
+        <v>0.74</v>
       </c>
       <c r="L38">
-        <v>218</v>
+        <v>37</v>
       </c>
       <c r="M38">
-        <v>218</v>
+        <v>37</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2787,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>77</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2795,13 +2849,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5466666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="C39">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D39">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2813,31 +2867,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="K39">
-        <v>0.7368421052631579</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L39">
+        <v>37</v>
+      </c>
+      <c r="M39">
+        <v>37</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <v>14</v>
-      </c>
-      <c r="M39">
-        <v>14</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2845,13 +2899,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5416666666666666</v>
+        <v>0.6107382550335571</v>
       </c>
       <c r="C40">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="D40">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2863,19 +2917,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="K40">
-        <v>0.7280334728033473</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L40">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="M40">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2887,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2895,13 +2949,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.5384615384615384</v>
+        <v>0.6</v>
       </c>
       <c r="C41">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D41">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2916,16 +2970,16 @@
         <v>12</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="K41">
-        <v>0.7096774193548387</v>
+        <v>0.7084745762711865</v>
       </c>
       <c r="L41">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="M41">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2937,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>9</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2945,13 +2999,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.5333333333333333</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="C42">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D42">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2963,19 +3017,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="K42">
-        <v>0.7083333333333334</v>
+        <v>0.7071129707112971</v>
       </c>
       <c r="L42">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="M42">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2987,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2995,13 +3049,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.5272727272727272</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="C43">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D43">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3013,19 +3067,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="K43">
-        <v>0.7083333333333334</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L43">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -3037,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3045,37 +3099,37 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.52</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C44">
+        <v>18</v>
+      </c>
+      <c r="D44">
+        <v>18</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
         <v>13</v>
       </c>
-      <c r="D44">
-        <v>13</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>12</v>
-      </c>
       <c r="J44" s="1" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="K44">
-        <v>0.7037037037037037</v>
+        <v>0.6853932584269663</v>
       </c>
       <c r="L44">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="M44">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -3087,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3095,13 +3149,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.5161290322580645</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="C45">
-        <v>16</v>
+        <v>208</v>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>208</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3113,19 +3167,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="K45">
-        <v>0.6923076923076923</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L45">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M45">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -3137,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3145,13 +3199,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.4888888888888889</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C46">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D46">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3163,19 +3217,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="K46">
-        <v>0.6842105263157895</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L46">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M46">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3187,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3195,13 +3249,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.4838709677419355</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C47">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D47">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3216,16 +3270,16 @@
         <v>16</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="K47">
-        <v>0.6818181818181818</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L47">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="M47">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3237,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3245,13 +3299,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.4838709677419355</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C48">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D48">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3263,19 +3317,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="K48">
-        <v>0.6666666666666666</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L48">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M48">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3287,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3295,13 +3349,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.4821428571428572</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C49">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D49">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3313,19 +3367,19 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="K49">
-        <v>0.6666666666666666</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L49">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M49">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3337,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3345,13 +3399,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.4814814814814815</v>
+        <v>0.52</v>
       </c>
       <c r="C50">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D50">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3363,19 +3417,19 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="K50">
-        <v>0.6595744680851063</v>
+        <v>0.625</v>
       </c>
       <c r="L50">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="M50">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3387,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3395,13 +3449,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.4007936507936508</v>
+        <v>0.52</v>
       </c>
       <c r="C51">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="D51">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3413,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="K51">
-        <v>0.6571428571428571</v>
+        <v>0.625</v>
       </c>
       <c r="L51">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="M51">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3437,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3445,31 +3499,31 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.3939393939393939</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C52">
+        <v>14</v>
+      </c>
+      <c r="D52">
+        <v>14</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52">
         <v>13</v>
       </c>
-      <c r="D52">
-        <v>13</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>20</v>
-      </c>
       <c r="J52" s="1" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="K52">
-        <v>0.6521739130434783</v>
+        <v>0.625</v>
       </c>
       <c r="L52">
         <v>15</v>
@@ -3487,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3495,13 +3549,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.3875</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C53">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D53">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3513,19 +3567,19 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="K53">
-        <v>0.651685393258427</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L53">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="M53">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3537,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3545,37 +3599,37 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.3636363636363636</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C54">
+        <v>27</v>
+      </c>
+      <c r="D54">
+        <v>27</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
         <v>28</v>
       </c>
-      <c r="D54">
-        <v>28</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>49</v>
-      </c>
       <c r="J54" s="1" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="K54">
-        <v>0.6176470588235294</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L54">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M54">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3587,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3595,38 +3649,38 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.35</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C55">
+        <v>35</v>
+      </c>
+      <c r="D55">
+        <v>35</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>42</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K55">
+        <v>0.6086956521739131</v>
+      </c>
+      <c r="L55">
         <v>14</v>
       </c>
-      <c r="D55">
+      <c r="M55">
         <v>14</v>
       </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>26</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K55">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="L55">
-        <v>16</v>
-      </c>
-      <c r="M55">
-        <v>16</v>
-      </c>
       <c r="N55">
         <v>1</v>
       </c>
@@ -3637,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3645,13 +3699,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.3333333333333333</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="C56">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D56">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3663,31 +3717,31 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="K56">
-        <v>0.6071428571428571</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L56">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M56">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3695,13 +3749,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2600536193029491</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C57">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="D57">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3713,19 +3767,19 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>276</v>
+        <v>18</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="K57">
-        <v>0.5925925925925926</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L57">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M57">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3737,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3745,13 +3799,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2542372881355932</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C58">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3763,31 +3817,31 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="K58">
-        <v>0.5833333333333334</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="L58">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M58">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3795,13 +3849,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1833333333333333</v>
+        <v>0.3690476190476191</v>
       </c>
       <c r="C59">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="D59">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3813,19 +3867,19 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>245</v>
+        <v>159</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="K59">
-        <v>0.5769230769230769</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="L59">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M59">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3837,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3845,28 +3899,28 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.08904109589041095</v>
+        <v>0.3375</v>
       </c>
       <c r="C60">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D60">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E60">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="K60">
         <v>0.5714285714285714</v>
@@ -3895,13 +3949,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.08873720136518772</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="C61">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D61">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3913,31 +3967,31 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>267</v>
+        <v>28</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="K61">
-        <v>0.5609756097560976</v>
+        <v>0.546875</v>
       </c>
       <c r="L61">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M61">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="N61">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3945,37 +3999,37 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.05531914893617021</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C62">
         <v>13</v>
       </c>
       <c r="D62">
+        <v>13</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>30</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K62">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="L62">
         <v>14</v>
       </c>
-      <c r="E62">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F62">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62">
-        <v>222</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K62">
-        <v>0.547945205479452</v>
-      </c>
-      <c r="L62">
-        <v>40</v>
-      </c>
       <c r="M62">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3987,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -3995,13 +4049,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.04619565217391304</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C63">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D63">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -4013,31 +4067,31 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>351</v>
+        <v>36</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="K63">
-        <v>0.5416666666666666</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="L63">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M63">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -4045,49 +4099,49 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03451251078515962</v>
+        <v>0.2600536193029491</v>
       </c>
       <c r="C64">
+        <v>97</v>
+      </c>
+      <c r="D64">
+        <v>97</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>276</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K64">
+        <v>0.4871794871794872</v>
+      </c>
+      <c r="L64">
+        <v>38</v>
+      </c>
+      <c r="M64">
+        <v>38</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
         <v>40</v>
-      </c>
-      <c r="D64">
-        <v>42</v>
-      </c>
-      <c r="E64">
-        <v>0.05</v>
-      </c>
-      <c r="F64">
-        <v>0.95</v>
-      </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64">
-        <v>1119</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K64">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="L64">
-        <v>24</v>
-      </c>
-      <c r="M64">
-        <v>24</v>
-      </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -4095,37 +4149,37 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03259115843820587</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="C65">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D65">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="E65">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>2998</v>
+        <v>45</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="K65">
-        <v>0.5245901639344263</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="L65">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="M65">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -4137,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -4145,37 +4199,37 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.02210724365004704</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="C66">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="D66">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="E66">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>2079</v>
+        <v>46</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="K66">
-        <v>0.4871794871794872</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L66">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="M66">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -4187,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -4195,37 +4249,37 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01966955153422502</v>
+        <v>0.2033333333333333</v>
       </c>
       <c r="C67">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="D67">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E67">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0.5800000000000001</v>
+        <v>1</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>1246</v>
+        <v>239</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="K67">
-        <v>0.484375</v>
+        <v>0.459016393442623</v>
       </c>
       <c r="L67">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M67">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -4245,37 +4299,37 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.01836969001148106</v>
+        <v>0.1006711409395973</v>
       </c>
       <c r="C68">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D68">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E68">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0.5900000000000001</v>
+        <v>1</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>855</v>
+        <v>134</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="K68">
-        <v>0.4838709677419355</v>
+        <v>0.456140350877193</v>
       </c>
       <c r="L68">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M68">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -4287,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -4295,37 +4349,37 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.01738024586689275</v>
+        <v>0.0880503144654088</v>
       </c>
       <c r="C69">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D69">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="E69">
-        <v>0.33</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F69">
-        <v>0.6699999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>2318</v>
+        <v>145</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="K69">
-        <v>0.4406779661016949</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="L69">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M69">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -4337,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -4345,37 +4399,37 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.01182654402102497</v>
+        <v>0.08085106382978724</v>
       </c>
       <c r="C70">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D70">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E70">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="F70">
-        <v>0.51</v>
+        <v>0.95</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>2256</v>
+        <v>216</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="K70">
-        <v>0.4385964912280702</v>
+        <v>0.3409090909090909</v>
       </c>
       <c r="L70">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M70">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -4387,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -4395,49 +4449,49 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.01137477936850363</v>
+        <v>0.07772020725388601</v>
       </c>
       <c r="C71">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D71">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="E71">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>0.47</v>
+        <v>1</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>5041</v>
+        <v>178</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="K71">
-        <v>0.4193548387096774</v>
+        <v>0.2990654205607476</v>
       </c>
       <c r="L71">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M71">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>18</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -4445,37 +4499,37 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.01028517999064984</v>
+        <v>0.06575342465753424</v>
       </c>
       <c r="C72">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D72">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="E72">
-        <v>0.53</v>
+        <v>0.11</v>
       </c>
       <c r="F72">
-        <v>0.47</v>
+        <v>0.89</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>4234</v>
+        <v>341</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="K72">
-        <v>0.3714285714285714</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L72">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M72">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -4487,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>22</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -4495,37 +4549,37 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.009122237989053315</v>
+        <v>0.06143344709897611</v>
       </c>
       <c r="C73">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D73">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="E73">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.42</v>
+        <v>1</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>4888</v>
+        <v>275</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="K73">
-        <v>0.3409090909090909</v>
+        <v>0.217741935483871</v>
       </c>
       <c r="L73">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M73">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -4537,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>29</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -4545,49 +4599,49 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.008735440931780365</v>
+        <v>0.03968938740293356</v>
       </c>
       <c r="C74">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D74">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E74">
-        <v>0.66</v>
+        <v>0.04</v>
       </c>
       <c r="F74">
-        <v>0.34</v>
+        <v>0.96</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>2383</v>
+        <v>1113</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="K74">
-        <v>0.3265306122448979</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L74">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M74">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N74">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -4595,49 +4649,49 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.008073817762399077</v>
+        <v>0.03937007874015748</v>
       </c>
       <c r="C75">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D75">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E75">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0.23</v>
+        <v>1</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>2580</v>
+        <v>366</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="K75">
-        <v>0.325</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="L75">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M75">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75">
-        <v>27</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -4645,109 +4699,181 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.006086142322097378</v>
+        <v>0.03465025906735751</v>
       </c>
       <c r="C76">
+        <v>107</v>
+      </c>
+      <c r="D76">
+        <v>126</v>
+      </c>
+      <c r="E76">
+        <v>0.15</v>
+      </c>
+      <c r="F76">
+        <v>0.85</v>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>2981</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K76">
+        <v>0.1468531468531468</v>
+      </c>
+      <c r="L76">
+        <v>21</v>
+      </c>
+      <c r="M76">
+        <v>21</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77">
+        <v>0.03403565640194489</v>
+      </c>
+      <c r="C77">
+        <v>21</v>
+      </c>
+      <c r="D77">
+        <v>31</v>
+      </c>
+      <c r="E77">
+        <v>0.32</v>
+      </c>
+      <c r="F77">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>596</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K77">
+        <v>0.1288343558282209</v>
+      </c>
+      <c r="L77">
+        <v>21</v>
+      </c>
+      <c r="M77">
+        <v>21</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="C78">
+        <v>27</v>
+      </c>
+      <c r="D78">
+        <v>36</v>
+      </c>
+      <c r="E78">
+        <v>0.25</v>
+      </c>
+      <c r="F78">
+        <v>0.75</v>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>846</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K78">
+        <v>0.1279069767441861</v>
+      </c>
+      <c r="L78">
+        <v>22</v>
+      </c>
+      <c r="M78">
+        <v>22</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79">
+        <v>0.0268041237113402</v>
+      </c>
+      <c r="C79">
         <v>13</v>
       </c>
-      <c r="D76">
-        <v>35</v>
-      </c>
-      <c r="E76">
-        <v>0.63</v>
-      </c>
-      <c r="F76">
-        <v>0.37</v>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76">
-        <v>2123</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K76">
-        <v>0.287037037037037</v>
-      </c>
-      <c r="L76">
-        <v>31</v>
-      </c>
-      <c r="M76">
-        <v>32</v>
-      </c>
-      <c r="N76">
-        <v>0.97</v>
-      </c>
-      <c r="O76">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P76" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q76">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17">
-      <c r="J77" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K77">
-        <v>0.1857142857142857</v>
-      </c>
-      <c r="L77">
-        <v>13</v>
-      </c>
-      <c r="M77">
-        <v>13</v>
-      </c>
-      <c r="N77">
-        <v>1</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="P77" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
-      <c r="J78" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K78">
-        <v>0.1805555555555556</v>
-      </c>
-      <c r="L78">
-        <v>13</v>
-      </c>
-      <c r="M78">
-        <v>13</v>
-      </c>
-      <c r="N78">
-        <v>1</v>
-      </c>
-      <c r="O78">
-        <v>0</v>
-      </c>
-      <c r="P78" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
+      <c r="D79">
+        <v>17</v>
+      </c>
+      <c r="E79">
+        <v>0.24</v>
+      </c>
+      <c r="F79">
+        <v>0.76</v>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>472</v>
+      </c>
       <c r="J79" s="1" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="K79">
-        <v>0.1774193548387097</v>
+        <v>0.1189189189189189</v>
       </c>
       <c r="L79">
         <v>22</v>
@@ -4765,775 +4891,1159 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>102</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:17">
+      <c r="A80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80">
+        <v>0.02556818181818182</v>
+      </c>
+      <c r="C80">
+        <v>18</v>
+      </c>
+      <c r="D80">
+        <v>22</v>
+      </c>
+      <c r="E80">
+        <v>0.18</v>
+      </c>
+      <c r="F80">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>686</v>
+      </c>
       <c r="J80" s="1" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="K80">
-        <v>0.1538461538461539</v>
+        <v>0.09696969696969697</v>
       </c>
       <c r="L80">
+        <v>16</v>
+      </c>
+      <c r="M80">
+        <v>16</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81">
+        <v>0.02365863962822138</v>
+      </c>
+      <c r="C81">
+        <v>56</v>
+      </c>
+      <c r="D81">
+        <v>68</v>
+      </c>
+      <c r="E81">
+        <v>0.18</v>
+      </c>
+      <c r="F81">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>2311</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K81">
+        <v>0.09558823529411764</v>
+      </c>
+      <c r="L81">
+        <v>52</v>
+      </c>
+      <c r="M81">
+        <v>55</v>
+      </c>
+      <c r="N81">
+        <v>0.95</v>
+      </c>
+      <c r="O81">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82">
+        <v>0.02262016965127239</v>
+      </c>
+      <c r="C82">
+        <v>48</v>
+      </c>
+      <c r="D82">
+        <v>69</v>
+      </c>
+      <c r="E82">
+        <v>0.3</v>
+      </c>
+      <c r="F82">
+        <v>0.7</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>2074</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K82">
+        <v>0.07451923076923077</v>
+      </c>
+      <c r="L82">
+        <v>31</v>
+      </c>
+      <c r="M82">
+        <v>31</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83">
+        <v>0.02209302325581395</v>
+      </c>
+      <c r="C83">
+        <v>19</v>
+      </c>
+      <c r="D83">
+        <v>26</v>
+      </c>
+      <c r="E83">
+        <v>0.27</v>
+      </c>
+      <c r="F83">
+        <v>0.73</v>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>841</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K83">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="L83">
         <v>22</v>
       </c>
-      <c r="M80">
+      <c r="M83">
         <v>22</v>
       </c>
-      <c r="N80">
-        <v>1</v>
-      </c>
-      <c r="O80">
-        <v>0</v>
-      </c>
-      <c r="P80" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="81" spans="10:17">
-      <c r="J81" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="K81">
-        <v>0.1477272727272727</v>
-      </c>
-      <c r="L81">
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84">
+        <v>0.01497137824746808</v>
+      </c>
+      <c r="C84">
+        <v>34</v>
+      </c>
+      <c r="D84">
+        <v>72</v>
+      </c>
+      <c r="E84">
+        <v>0.53</v>
+      </c>
+      <c r="F84">
+        <v>0.47</v>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>2237</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K84">
+        <v>0.06527196652719665</v>
+      </c>
+      <c r="L84">
+        <v>78</v>
+      </c>
+      <c r="M84">
+        <v>83</v>
+      </c>
+      <c r="N84">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O84">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P84" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85">
+        <v>0.0141718334809566</v>
+      </c>
+      <c r="C85">
+        <v>16</v>
+      </c>
+      <c r="D85">
+        <v>27</v>
+      </c>
+      <c r="E85">
+        <v>0.41</v>
+      </c>
+      <c r="F85">
+        <v>0.5900000000000001</v>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>1113</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K85">
+        <v>0.0625</v>
+      </c>
+      <c r="L85">
+        <v>18</v>
+      </c>
+      <c r="M85">
+        <v>19</v>
+      </c>
+      <c r="N85">
+        <v>0.95</v>
+      </c>
+      <c r="O85">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P85" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86">
+        <v>0.01357827476038339</v>
+      </c>
+      <c r="C86">
+        <v>17</v>
+      </c>
+      <c r="D86">
+        <v>54</v>
+      </c>
+      <c r="E86">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F86">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>1235</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K86">
+        <v>0.05157593123209169</v>
+      </c>
+      <c r="L86">
+        <v>18</v>
+      </c>
+      <c r="M86">
+        <v>18</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87">
+        <v>0.01309596889707387</v>
+      </c>
+      <c r="C87">
+        <v>64</v>
+      </c>
+      <c r="D87">
+        <v>173</v>
+      </c>
+      <c r="E87">
+        <v>0.63</v>
+      </c>
+      <c r="F87">
+        <v>0.37</v>
+      </c>
+      <c r="G87" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>4823</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K87">
+        <v>0.04587155963302753</v>
+      </c>
+      <c r="L87">
+        <v>15</v>
+      </c>
+      <c r="M87">
+        <v>15</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="A88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88">
+        <v>0.01298445799724572</v>
+      </c>
+      <c r="C88">
+        <v>66</v>
+      </c>
+      <c r="D88">
+        <v>148</v>
+      </c>
+      <c r="E88">
+        <v>0.55</v>
+      </c>
+      <c r="F88">
+        <v>0.45</v>
+      </c>
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>5017</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K88">
+        <v>0.04578313253012048</v>
+      </c>
+      <c r="L88">
+        <v>19</v>
+      </c>
+      <c r="M88">
+        <v>22</v>
+      </c>
+      <c r="N88">
+        <v>0.86</v>
+      </c>
+      <c r="O88">
+        <v>0.14</v>
+      </c>
+      <c r="P88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="A89" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89">
+        <v>0.01222378937470616</v>
+      </c>
+      <c r="C89">
+        <v>26</v>
+      </c>
+      <c r="D89">
+        <v>57</v>
+      </c>
+      <c r="E89">
+        <v>0.54</v>
+      </c>
+      <c r="F89">
+        <v>0.46</v>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>2101</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K89">
+        <v>0.04276315789473684</v>
+      </c>
+      <c r="L89">
         <v>13</v>
       </c>
-      <c r="M81">
+      <c r="M89">
+        <v>15</v>
+      </c>
+      <c r="N89">
+        <v>0.87</v>
+      </c>
+      <c r="O89">
+        <v>0.13</v>
+      </c>
+      <c r="P89" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
+      <c r="A90" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90">
+        <v>0.01218654792594329</v>
+      </c>
+      <c r="C90">
+        <v>52</v>
+      </c>
+      <c r="D90">
+        <v>113</v>
+      </c>
+      <c r="E90">
+        <v>0.54</v>
+      </c>
+      <c r="F90">
+        <v>0.46</v>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>4215</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K90">
+        <v>0.04175152749490835</v>
+      </c>
+      <c r="L90">
+        <v>41</v>
+      </c>
+      <c r="M90">
+        <v>48</v>
+      </c>
+      <c r="N90">
+        <v>0.85</v>
+      </c>
+      <c r="O90">
+        <v>0.15</v>
+      </c>
+      <c r="P90" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="A91" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91">
+        <v>0.01215611004478567</v>
+      </c>
+      <c r="C91">
+        <v>19</v>
+      </c>
+      <c r="D91">
+        <v>50</v>
+      </c>
+      <c r="E91">
+        <v>0.62</v>
+      </c>
+      <c r="F91">
+        <v>0.38</v>
+      </c>
+      <c r="G91" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>1544</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K91">
+        <v>0.04037267080745342</v>
+      </c>
+      <c r="L91">
+        <v>26</v>
+      </c>
+      <c r="M91">
+        <v>32</v>
+      </c>
+      <c r="N91">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O91">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P91" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="A92" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92">
+        <v>0.01187824795842613</v>
+      </c>
+      <c r="C92">
+        <v>16</v>
+      </c>
+      <c r="D92">
+        <v>32</v>
+      </c>
+      <c r="E92">
+        <v>0.5</v>
+      </c>
+      <c r="F92">
+        <v>0.5</v>
+      </c>
+      <c r="G92" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>1331</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K92">
+        <v>0.03656998738965952</v>
+      </c>
+      <c r="L92">
+        <v>116</v>
+      </c>
+      <c r="M92">
+        <v>145</v>
+      </c>
+      <c r="N92">
+        <v>0.8</v>
+      </c>
+      <c r="O92">
+        <v>0.2</v>
+      </c>
+      <c r="P92" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="A93" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93">
+        <v>0.01047339757017176</v>
+      </c>
+      <c r="C93">
+        <v>25</v>
+      </c>
+      <c r="D93">
+        <v>83</v>
+      </c>
+      <c r="E93">
+        <v>0.7</v>
+      </c>
+      <c r="F93">
+        <v>0.3</v>
+      </c>
+      <c r="G93" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>2362</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K93">
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="L93">
         <v>13</v>
       </c>
-      <c r="N81">
-        <v>1</v>
-      </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-      <c r="P81" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q81">
+      <c r="M93">
+        <v>19</v>
+      </c>
+      <c r="N93">
+        <v>0.68</v>
+      </c>
+      <c r="O93">
+        <v>0.32</v>
+      </c>
+      <c r="P93" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="A94" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94">
+        <v>0.009671179883945842</v>
+      </c>
+      <c r="C94">
+        <v>25</v>
+      </c>
+      <c r="D94">
+        <v>113</v>
+      </c>
+      <c r="E94">
+        <v>0.78</v>
+      </c>
+      <c r="F94">
+        <v>0.22</v>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>2560</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K94">
+        <v>0.03323262839879154</v>
+      </c>
+      <c r="L94">
+        <v>88</v>
+      </c>
+      <c r="M94">
+        <v>113</v>
+      </c>
+      <c r="N94">
+        <v>0.78</v>
+      </c>
+      <c r="O94">
+        <v>0.22</v>
+      </c>
+      <c r="P94" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="A95" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95">
+        <v>0.00940032414910859</v>
+      </c>
+      <c r="C95">
+        <v>29</v>
+      </c>
+      <c r="D95">
+        <v>145</v>
+      </c>
+      <c r="E95">
+        <v>0.8</v>
+      </c>
+      <c r="F95">
+        <v>0.2</v>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>3056</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K95">
+        <v>0.03278688524590164</v>
+      </c>
+      <c r="L95">
+        <v>34</v>
+      </c>
+      <c r="M95">
+        <v>37</v>
+      </c>
+      <c r="N95">
+        <v>0.92</v>
+      </c>
+      <c r="O95">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P95" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="J96" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K96">
+        <v>0.03144654088050314</v>
+      </c>
+      <c r="L96">
         <v>75</v>
       </c>
-    </row>
-    <row r="82" spans="10:17">
-      <c r="J82" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="K82">
-        <v>0.1473684210526316</v>
-      </c>
-      <c r="L82">
-        <v>14</v>
-      </c>
-      <c r="M82">
-        <v>14</v>
-      </c>
-      <c r="N82">
-        <v>1</v>
-      </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-      <c r="P82" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="10:17">
-      <c r="J83" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K83">
-        <v>0.1351351351351351</v>
-      </c>
-      <c r="L83">
-        <v>25</v>
-      </c>
-      <c r="M83">
-        <v>25</v>
-      </c>
-      <c r="N83">
-        <v>1</v>
-      </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-      <c r="P83" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="84" spans="10:17">
-      <c r="J84" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K84">
-        <v>0.125</v>
-      </c>
-      <c r="L84">
-        <v>14</v>
-      </c>
-      <c r="M84">
-        <v>15</v>
-      </c>
-      <c r="N84">
-        <v>0.93</v>
-      </c>
-      <c r="O84">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P84" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q84">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="10:17">
-      <c r="J85" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K85">
-        <v>0.1221374045801527</v>
-      </c>
-      <c r="L85">
-        <v>16</v>
-      </c>
-      <c r="M85">
-        <v>16</v>
-      </c>
-      <c r="N85">
-        <v>1</v>
-      </c>
-      <c r="O85">
-        <v>0</v>
-      </c>
-      <c r="P85" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q85">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="86" spans="10:17">
-      <c r="J86" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K86">
-        <v>0.08794788273615635</v>
-      </c>
-      <c r="L86">
-        <v>27</v>
-      </c>
-      <c r="M86">
-        <v>28</v>
-      </c>
-      <c r="N86">
-        <v>0.96</v>
-      </c>
-      <c r="O86">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P86" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q86">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="87" spans="10:17">
-      <c r="J87" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K87">
-        <v>0.08650519031141868</v>
-      </c>
-      <c r="L87">
-        <v>25</v>
-      </c>
-      <c r="M87">
-        <v>25</v>
-      </c>
-      <c r="N87">
-        <v>1</v>
-      </c>
-      <c r="O87">
-        <v>0</v>
-      </c>
-      <c r="P87" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q87">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="88" spans="10:17">
-      <c r="J88" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K88">
-        <v>0.0755813953488372</v>
-      </c>
-      <c r="L88">
-        <v>13</v>
-      </c>
-      <c r="M88">
-        <v>13</v>
-      </c>
-      <c r="N88">
-        <v>1</v>
-      </c>
-      <c r="O88">
-        <v>0</v>
-      </c>
-      <c r="P88" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q88">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="89" spans="10:17">
-      <c r="J89" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K89">
-        <v>0.06896551724137931</v>
-      </c>
-      <c r="L89">
-        <v>24</v>
-      </c>
-      <c r="M89">
-        <v>25</v>
-      </c>
-      <c r="N89">
-        <v>0.96</v>
-      </c>
-      <c r="O89">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P89" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q89">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="90" spans="10:17">
-      <c r="J90" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="K90">
-        <v>0.06359832635983263</v>
-      </c>
-      <c r="L90">
-        <v>76</v>
-      </c>
-      <c r="M90">
-        <v>81</v>
-      </c>
-      <c r="N90">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O90">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P90" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q90">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="91" spans="10:17">
-      <c r="J91" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="K91">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="L91">
-        <v>32</v>
-      </c>
-      <c r="M91">
-        <v>35</v>
-      </c>
-      <c r="N91">
-        <v>0.91</v>
-      </c>
-      <c r="O91">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P91" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q91">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="92" spans="10:17">
-      <c r="J92" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K92">
-        <v>0.05681818181818182</v>
-      </c>
-      <c r="L92">
-        <v>15</v>
-      </c>
-      <c r="M92">
-        <v>19</v>
-      </c>
-      <c r="N92">
-        <v>0.79</v>
-      </c>
-      <c r="O92">
-        <v>0.21</v>
-      </c>
-      <c r="P92" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q92">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="93" spans="10:17">
-      <c r="J93" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K93">
-        <v>0.04807692307692308</v>
-      </c>
-      <c r="L93">
-        <v>20</v>
-      </c>
-      <c r="M93">
-        <v>20</v>
-      </c>
-      <c r="N93">
-        <v>1</v>
-      </c>
-      <c r="O93">
-        <v>0</v>
-      </c>
-      <c r="P93" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q93">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="94" spans="10:17">
-      <c r="J94" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="K94">
-        <v>0.0335707019328586</v>
-      </c>
-      <c r="L94">
-        <v>33</v>
-      </c>
-      <c r="M94">
-        <v>39</v>
-      </c>
-      <c r="N94">
-        <v>0.85</v>
-      </c>
-      <c r="O94">
-        <v>0.15</v>
-      </c>
-      <c r="P94" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q94">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="95" spans="10:17">
-      <c r="J95" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="K95">
-        <v>0.03117505995203837</v>
-      </c>
-      <c r="L95">
-        <v>13</v>
-      </c>
-      <c r="M95">
-        <v>14</v>
-      </c>
-      <c r="N95">
-        <v>0.93</v>
-      </c>
-      <c r="O95">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P95" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q95">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="96" spans="10:17">
-      <c r="J96" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K96">
-        <v>0.03111111111111111</v>
-      </c>
-      <c r="L96">
-        <v>28</v>
-      </c>
       <c r="M96">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="N96">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="O96">
-        <v>0.03000000000000003</v>
+        <v>0.11</v>
       </c>
       <c r="P96" t="b">
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>872</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="K97">
-        <v>0.02990033222591362</v>
+        <v>0.03130755064456722</v>
       </c>
       <c r="L97">
+        <v>17</v>
+      </c>
+      <c r="M97">
         <v>18</v>
       </c>
-      <c r="M97">
-        <v>21</v>
-      </c>
       <c r="N97">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O97">
-        <v>0.14</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P97" t="b">
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>584</v>
+        <v>526</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c r="K98">
-        <v>0.02791145332050048</v>
+        <v>0.02908805031446541</v>
       </c>
       <c r="L98">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M98">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="N98">
-        <v>0.97</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O98">
-        <v>0.03000000000000003</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="P98" t="b">
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>1010</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="K99">
-        <v>0.02714932126696833</v>
+        <v>0.02760351317440402</v>
       </c>
       <c r="L99">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="M99">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="N99">
-        <v>0.77</v>
+        <v>0.85</v>
       </c>
       <c r="O99">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="P99" t="b">
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>2580</v>
+        <v>775</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="K100">
-        <v>0.02595228128924236</v>
+        <v>0.02708333333333333</v>
       </c>
       <c r="L100">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M100">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="N100">
-        <v>0.93</v>
+        <v>0.72</v>
       </c>
       <c r="O100">
-        <v>0.06999999999999995</v>
+        <v>0.28</v>
       </c>
       <c r="P100" t="b">
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>2327</v>
+        <v>467</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="K101">
-        <v>0.02507051081165779</v>
+        <v>0.025</v>
       </c>
       <c r="L101">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="M101">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="N101">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="O101">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="P101" t="b">
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>3111</v>
+        <v>585</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="K102">
-        <v>0.02102496714848883</v>
+        <v>0.02411873840445269</v>
       </c>
       <c r="L102">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M102">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N102">
-        <v>0.64</v>
+        <v>0.68</v>
       </c>
       <c r="O102">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="P102" t="b">
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>745</v>
+        <v>526</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>182</v>
+        <v>98</v>
       </c>
       <c r="K103">
-        <v>0.01726121979286536</v>
+        <v>0.02396694214876033</v>
       </c>
       <c r="L103">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="M103">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="N103">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
       <c r="O103">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
       <c r="P103" t="b">
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>854</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>183</v>
+        <v>92</v>
       </c>
       <c r="K104">
-        <v>0.01702395964691047</v>
+        <v>0.02210056772100568</v>
       </c>
       <c r="L104">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="M104">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="N104">
-        <v>0.77</v>
+        <v>0.63</v>
       </c>
       <c r="O104">
-        <v>0.23</v>
+        <v>0.37</v>
       </c>
       <c r="P104" t="b">
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>1559</v>
+        <v>4823</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="K105">
-        <v>0.01691419141914191</v>
+        <v>0.01968253968253968</v>
       </c>
       <c r="L105">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M105">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="N105">
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="O105">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="P105" t="b">
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>2383</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="K106">
-        <v>0.01689189189189189</v>
+        <v>0.0195852534562212</v>
       </c>
       <c r="L106">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M106">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N106">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="O106">
-        <v>0.29</v>
+        <v>0.37</v>
       </c>
       <c r="P106" t="b">
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>873</v>
+        <v>851</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>72</v>
+        <v>200</v>
       </c>
       <c r="K107">
-        <v>0.01424050632911392</v>
+        <v>0.0189520624303233</v>
       </c>
       <c r="L107">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M107">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="N107">
-        <v>0.42</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O107">
-        <v>0.5800000000000001</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P107" t="b">
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>1246</v>
+        <v>880</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="K108">
-        <v>0.01292343841785784</v>
+        <v>0.01880877742946709</v>
       </c>
       <c r="L108">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="M108">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="N108">
-        <v>0.53</v>
+        <v>0.62</v>
       </c>
       <c r="O108">
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
       <c r="P108" t="b">
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>5041</v>
+        <v>939</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="K109">
-        <v>0.0127247020803878</v>
+        <v>0.01842105263157895</v>
       </c>
       <c r="L109">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="M109">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="N109">
         <v>0.58</v>
@@ -5545,21 +6055,21 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>4888</v>
+        <v>746</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K110">
-        <v>0.01167133520074697</v>
+        <v>0.01670329670329671</v>
       </c>
       <c r="L110">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M110">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="N110">
         <v>0.53</v>
@@ -5571,111 +6081,163 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>4234</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="K111">
-        <v>0.01139351446099912</v>
+        <v>0.01608158462443617</v>
       </c>
       <c r="L111">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="M111">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="N111">
-        <v>0.49</v>
+        <v>0.55</v>
       </c>
       <c r="O111">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
       <c r="P111" t="b">
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>2256</v>
+        <v>5017</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K112">
-        <v>0.01025641025641026</v>
+        <v>0.01454033771106942</v>
       </c>
       <c r="L112">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M112">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="N112">
-        <v>0.63</v>
+        <v>0.54</v>
       </c>
       <c r="O112">
-        <v>0.37</v>
+        <v>0.46</v>
       </c>
       <c r="P112" t="b">
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>2123</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="K113">
-        <v>0.008554319931565441</v>
+        <v>0.01426566884939195</v>
       </c>
       <c r="L113">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="M113">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="N113">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="O113">
-        <v>0.6699999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="P113" t="b">
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>2318</v>
+        <v>4215</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="K114">
-        <v>0.008110687022900763</v>
+        <v>0.01187824795842613</v>
       </c>
       <c r="L114">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M114">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="N114">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="O114">
-        <v>0.73</v>
+        <v>0.5</v>
       </c>
       <c r="P114" t="b">
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>2079</v>
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="115" spans="10:17">
+      <c r="J115" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K115">
+        <v>0.01002386634844869</v>
+      </c>
+      <c r="L115">
+        <v>21</v>
+      </c>
+      <c r="M115">
+        <v>69</v>
+      </c>
+      <c r="N115">
+        <v>0.3</v>
+      </c>
+      <c r="O115">
+        <v>0.7</v>
+      </c>
+      <c r="P115" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q115">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="116" spans="10:17">
+      <c r="J116" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K116">
+        <v>0.006333333333333333</v>
+      </c>
+      <c r="L116">
+        <v>19</v>
+      </c>
+      <c r="M116">
+        <v>126</v>
+      </c>
+      <c r="N116">
+        <v>0.15</v>
+      </c>
+      <c r="O116">
+        <v>0.85</v>
+      </c>
+      <c r="P116" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q116">
+        <v>2981</v>
       </c>
     </row>
   </sheetData>
